--- a/Experiment_Result/AlexNet.xlsx
+++ b/Experiment_Result/AlexNet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavier/Desktop/Xavier/Code/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavier/Desktop/Xavier/Code/Github/channel_wise_bit_allocation/Experiment_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6180D-6E31-EA4F-AD6D-1C09B458B386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D553D16-5253-7B4A-A93E-3E74049DCC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="9340" windowWidth="14780" windowHeight="8900" xr2:uid="{0190AF56-22D7-FC42-AD41-2826AC3071E0}"/>
+    <workbookView xWindow="4100" yWindow="3760" windowWidth="14780" windowHeight="14480" xr2:uid="{0190AF56-22D7-FC42-AD41-2826AC3071E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31399B96-ADCD-A244-A30B-31F35C90E9D5}">
-  <dimension ref="A14:H22"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -481,231 +481,231 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B3" s="1">
         <v>0.52927000000000002</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C3" s="1">
         <v>4.487E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D3" s="1">
         <v>8.5900000000000004E-3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E3" s="1">
         <v>1.97E-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F3" s="1">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G3" s="1">
         <v>1.2E-4</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B4" s="1">
         <v>0.1983</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C4" s="1">
         <v>0.19839000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D4" s="1">
         <v>0.19836999999999999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E4" s="1">
         <v>0.19828000000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F4" s="1">
         <v>0.19828000000000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G4" s="1">
         <v>0.19827</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B5" s="1">
         <v>0.32478000000000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C5" s="1">
         <v>4.6489999999999997E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D5" s="1">
         <v>8.7600000000000004E-3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E5" s="1">
         <v>1.97E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F5" s="1">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G5" s="1">
         <v>1.2E-4</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B6" s="1">
         <v>0.25964999999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C6" s="1">
         <v>3.8260000000000002E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D6" s="1">
         <v>7.3099999999999997E-3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E6" s="1">
         <v>1.6900000000000001E-3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F6" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G6" s="1">
         <v>1E-4</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B7" s="1">
         <v>0.23238</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C7" s="1">
         <v>3.4569999999999997E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D7" s="1">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E7" s="1">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F7" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G7" s="1">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B8" s="1">
         <v>0.22051000000000001</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C8" s="1">
         <v>3.1189999999999999E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D8" s="1">
         <v>6.0099999999999997E-3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E8" s="1">
         <v>1.41E-3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F8" s="1">
         <v>3.5E-4</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G8" s="1">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B9" s="1">
         <v>0.20916000000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C9" s="1">
         <v>2.8649999999999998E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D9" s="1">
         <v>5.6800000000000002E-3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E9" s="1">
         <v>1.32E-3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F9" s="1">
         <v>3.3E-4</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G9" s="1">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
